--- a/dataset/insecure stuff.xlsx
+++ b/dataset/insecure stuff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -844,7 +844,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -852,11 +852,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if  ( isHighSpeed )  { CLOCK_PLL (  )  ; } &lt;end&gt;</t>
+          <t>&lt;start&gt;                             if  ( result &gt; 0 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>587</v>
+        <v>620</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -881,11 +881,11 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                             if  ( result &gt; 0 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;                     if  ( status.lastSampledTicks == 0x0000 )  { status.lastSampledTicks = now ;  } &lt;end&gt;</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>620</v>
+        <v>645</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -910,11 +910,11 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     if  ( status.lastSampledTicks == 0x0000 )  { status.lastSampledTicks = now ;  } &lt;end&gt;</t>
+          <t>&lt;start&gt;                     if  ( status.lastWrittenTicks == 0x0000 )  { status.lastWrittenTicks = now ;  } &lt;end&gt;</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -939,11 +939,11 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     if  ( status.lastWrittenTicks == 0x0000 )  { status.lastWrittenTicks = now ;  } &lt;end&gt;</t>
+          <t>&lt;start&gt;                             if  ( failCounter &gt; 5 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -968,11 +968,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                             if  ( failCounter &gt; 5 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;                         else if  ( now - status.lastWrittenTicks &gt; 30 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -997,11 +997,11 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                         else if  ( now - status.lastWrittenTicks &gt; 30 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;                             if  ( failCounter &gt; 5 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1026,11 +1026,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                             if  ( failCounter &gt; 5 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;                                 if  ( FSDiskFree (  )  == 0 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>552</v>
+        <v>607</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1055,11 +1055,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>552</v>
+        <v>607</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                                 if  ( FSDiskFree (  )  == 0 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( restart != 1 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>666</v>
+        <v>731</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1084,11 +1084,11 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( restart != 1 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;                 if  ( countdown &gt; 0 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>731</v>
+        <v>755</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1105,19 +1105,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>624</v>
+        <v>758</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>624</v>
+        <v>758</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             if  ( led )  &lt;end&gt;</t>
+          <t>&lt;start&gt; if ( ever_saved == 0 )  {  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>752</v>
+        <v>142</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1134,19 +1134,19 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>627</v>
+        <v>796</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AX3_Firmware main.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>627</v>
+        <v>796</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 if  ( countdown &gt; 0 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( bus-&gt;timeout == 0 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>755</v>
+        <v>51</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1163,19 +1163,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>758</v>
+        <v>1080</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>758</v>
+        <v>1080</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( ever_saved == 0 )  {  &lt;end&gt;</t>
+          <t>&lt;start&gt; if  ( r != 0 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1192,19 +1192,19 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>796</v>
+        <v>1253</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>796</v>
+        <v>1253</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( bus-&gt;timeout == 0 )  &lt;end&gt;</t>
+          <t>&lt;start&gt; if  (  ( data_unit_length &lt;= 0 )  ||  ( data_unit_length &gt; 10000000 )  )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>51</v>
+        <v>438</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1221,19 +1221,19 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>876</v>
+        <v>1260</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>876</v>
+        <v>1260</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     return ret == 1 ? count : 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; if  (  ( data_unit_length &amp; 0x7f )  != 0 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>134</v>
+        <v>445</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1250,19 +1250,19 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>1080</v>
+        <v>1890</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1080</v>
+        <v>1890</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if  ( r != 0 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( len &lt; 0 )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>222</v>
+        <v>376</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1279,19 +1279,19 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>1226</v>
+        <v>1936</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1226</v>
+        <v>1936</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>&lt;start&gt; while  ( !seen_count )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( 0 != iotx_post ( httpc ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1308,19 +1308,19 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>1253</v>
+        <v>1949</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1253</v>
+        <v>1949</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if  (  ( data_unit_length &lt;= 0 )  ||  ( data_unit_length &gt; 10000000 )  )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( ret &lt; 0 )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1337,19 +1337,19 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>1260</v>
+        <v>1954</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1260</v>
+        <v>1954</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if  (  ( data_unit_length &amp; 0x7f )  != 0 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( 0 == iotx_http_context-&gt;keep_alive )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>1890</v>
+        <v>2076</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1374,11 +1374,11 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1890</v>
+        <v>2076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( len &lt; 0 )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( 0 == iotx_http_context-&gt;is_authed )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>376</v>
+        <v>594</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>1936</v>
+        <v>2137</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1403,11 +1403,11 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1936</v>
+        <v>2137</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( 0 != iotx_post ( httpc ,  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( ret &lt; 0 )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>434</v>
+        <v>657</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>1949</v>
+        <v>2143</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1432,11 +1432,11 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1949</v>
+        <v>2143</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( ret &lt; 0 )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( 0 == iotx_http_context-&gt;keep_alive )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>447</v>
+        <v>663</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1453,19 +1453,19 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>1954</v>
+        <v>2331</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1954</v>
+        <v>2331</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( 0 == iotx_http_context-&gt;keep_alive )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;   if ( fingerprintID == 1 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>452</v>
+        <v>98</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1482,19 +1482,19 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>2033</v>
+        <v>2342</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2033</v>
+        <v>2342</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( req_payload )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;    if ( fingerprintID == 2 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>544</v>
+        <v>109</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1511,19 +1511,19 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>2037</v>
+        <v>2498</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2037</v>
+        <v>2498</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( rsp_payload )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 5 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>548</v>
+        <v>184</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1540,19 +1540,19 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>2076</v>
+        <v>2559</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2076</v>
+        <v>2559</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( 0 == iotx_http_context-&gt;is_authed )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 0 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>594</v>
+        <v>261</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1569,19 +1569,19 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>2137</v>
+        <v>2581</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2137</v>
+        <v>2581</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( ret &lt; 0 )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 1 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>657</v>
+        <v>289</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1598,19 +1598,19 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>2143</v>
+        <v>2704</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2143</v>
+        <v>2704</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( 0 == iotx_http_context-&gt;keep_alive )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( begin_session_counter &gt;= 50 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>663</v>
+        <v>470</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1627,19 +1627,19 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>2199</v>
+        <v>2742</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2199</v>
+        <v>2742</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( user_data )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( vend_approved_counter &gt;= 50 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>733</v>
+        <v>516</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1656,19 +1656,19 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>2331</v>
+        <v>2849</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2331</v>
+        <v>2849</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>&lt;start&gt;   if ( fingerprintID == 1 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 4 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>98</v>
+        <v>643</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1685,19 +1685,19 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>2342</v>
+        <v>2876</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2342</v>
+        <v>2876</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>&lt;start&gt;    if ( fingerprintID == 2 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 2 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>109</v>
+        <v>685</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>2498</v>
+        <v>2896</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1722,11 +1722,11 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2498</v>
+        <v>2896</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 5 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 0 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1735,7 +1735,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>184</v>
+        <v>715</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>2559</v>
+        <v>2923</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1751,11 +1751,11 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2559</v>
+        <v>2923</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 0 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 4 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>261</v>
+        <v>747</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>2581</v>
+        <v>2961</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1780,11 +1780,11 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2581</v>
+        <v>2961</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 1 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 29 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>289</v>
+        <v>801</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -1801,19 +1801,19 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>2704</v>
+        <v>3082</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>MicroBros-SmartHome main.c</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2704</v>
+        <v>3082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( begin_session_counter &gt;= 50 )  &lt;end&gt;</t>
+          <t>&lt;start&gt; if ( last_temp == 255 ||  ( curr_temp-last_temp )   )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>470</v>
+        <v>60</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -1830,19 +1830,19 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>2742</v>
+        <v>3108</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>MicroBros-SmartHome main.c</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2742</v>
+        <v>3108</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( vend_approved_counter &gt;= 50 )  &lt;end&gt;</t>
+          <t>&lt;start&gt; if (   ( memcmp ( entered_password ,  password ,  sizeof ( entered_password )  )  != 0 )   )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>516</v>
+        <v>86</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -1859,19 +1859,19 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>2849</v>
+        <v>3121</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>MicroBros-SmartHome main.c</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2849</v>
+        <v>3121</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 4 )  &lt;end&gt;</t>
+          <t>&lt;start&gt; if ( counter == 3 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>643</v>
+        <v>99</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -1888,19 +1888,19 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>2876</v>
+        <v>3163</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2876</v>
+        <v>3163</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 2 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( CryptoHashFunction ( SecretKey ,  32 ,  k )  != 0 )  {    &lt;end&gt;</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>685</v>
+        <v>26</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -1917,19 +1917,19 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>2896</v>
+        <v>3213</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2896</v>
+        <v>3213</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 0 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( CryptoHashFunction ( SecretKey ,  32 ,  k )  != 0 )  {    &lt;end&gt;</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>715</v>
+        <v>82</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -1946,19 +1946,19 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>2923</v>
+        <v>3227</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2923</v>
+        <v>3227</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 4 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( CryptoHashFunction ( temp+32 ,  SizeMessage+32 ,  r )  != 0 )  {    &lt;end&gt;</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>747</v>
+        <v>96</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -1975,19 +1975,19 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>2961</v>
+        <v>3237</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2961</v>
+        <v>3237</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 29 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( CryptoHashFunction ( temp ,  SizeMessage+64 ,  h )  != 0 )  {    &lt;end&gt;</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>801</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2004,19 +2004,19 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3082</v>
+        <v>3290</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MicroBros-SmartHome main.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3082</v>
+        <v>3290</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( last_temp == 255 ||  ( curr_temp-last_temp )   )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( CryptoHashFunction ( temp ,  SizeMessage+64 ,  h )  != 0 )  {    &lt;end&gt;</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2033,19 +2033,19 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3108</v>
+        <v>3375</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MicroBros-SmartHome main.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3108</v>
+        <v>3375</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if (   ( memcmp ( entered_password ,  password ,  sizeof ( entered_password )  )  != 0 )   )  &lt;end&gt;</t>
+          <t>&lt;start&gt; if  ( inlen &lt;= 0 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2062,19 +2062,19 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3121</v>
+        <v>3519</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MicroBros-SmartHome main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3121</v>
+        <v>3519</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( counter == 3 )  &lt;end&gt;</t>
+          <t>&lt;start&gt; }while ( column == 0x0F )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2083,7 +2083,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2091,19 +2091,19 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3163</v>
+        <v>3571</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3163</v>
+        <v>3571</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( CryptoHashFunction ( SecretKey ,  32 ,  k )  != 0 )  {    &lt;end&gt;</t>
+          <t>&lt;start&gt; if ( flagWrongPass == 0 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2120,19 +2120,19 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3213</v>
+        <v>3572</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3213</v>
+        <v>3572</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( CryptoHashFunction ( SecretKey ,  32 ,  k )  != 0 )  {    &lt;end&gt;</t>
+          <t>&lt;start&gt; while ( buzzerCounter &gt; 0 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2149,19 +2149,19 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3227</v>
+        <v>3577</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3227</v>
+        <v>3577</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( CryptoHashFunction ( temp+32 ,  SizeMessage+32 ,  r )  != 0 )  {    &lt;end&gt;</t>
+          <t>&lt;start&gt; } else if ( flagWrongPass == 1 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2178,19 +2178,19 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3237</v>
+        <v>3585</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3237</v>
+        <v>3585</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( CryptoHashFunction ( temp ,  SizeMessage+64 ,  h )  != 0 )  {    &lt;end&gt;</t>
+          <t>&lt;start&gt; if (  ( PINB &amp; _BV ( PB0 )  )  == 0 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2199,7 +2199,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2207,19 +2207,19 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3290</v>
+        <v>3590</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3290</v>
+        <v>3590</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( CryptoHashFunction ( temp ,  SizeMessage+64 ,  h )  != 0 )  {    &lt;end&gt;</t>
+          <t>&lt;start&gt; if ( doorOpen == 0 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2236,19 +2236,19 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3375</v>
+        <v>3606</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3375</v>
+        <v>3606</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if  ( inlen &lt;= 0 )  &lt;end&gt;</t>
+          <t>&lt;start&gt; if ( doorOpen == 1 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3519</v>
+        <v>3609</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2273,11 +2273,11 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3519</v>
+        <v>3609</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>&lt;start&gt; }while ( column == 0x0F )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } else if ( doorOpen == 0 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2286,7 +2286,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3571</v>
+        <v>3620</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3571</v>
+        <v>3620</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( flagWrongPass == 0 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt; if ( flagPot == 0 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3572</v>
+        <v>3625</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2331,11 +2331,11 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3572</v>
+        <v>3625</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>&lt;start&gt; while ( buzzerCounter &gt; 0 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt; } else if ( flagPot == 1 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3577</v>
+        <v>3650</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2360,11 +2360,11 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3577</v>
+        <v>3650</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } else if ( flagWrongPass == 1 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt; if (  ( PINB &amp; _BV ( PB0 )  )  == 0 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3585</v>
+        <v>3665</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3585</v>
+        <v>3665</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3590</v>
+        <v>3720</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2418,11 +2418,11 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3590</v>
+        <v>3720</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( doorOpen == 0 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt; if ( wrongPassCounter == 0 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>134</v>
+        <v>264</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3606</v>
+        <v>3771</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3606</v>
+        <v>3771</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>150</v>
+        <v>315</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2468,19 +2468,19 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3609</v>
+        <v>3889</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3609</v>
+        <v>3889</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } else if ( doorOpen == 0 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt;                 if  ( wifiEnrollProgress != 0 )  break ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2489,7 +2489,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2497,19 +2497,19 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3620</v>
+        <v>3910</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3620</v>
+        <v>3910</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( flagPot == 0 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt;                 if ( lockFlag == FALSE ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2526,19 +2526,19 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3625</v>
+        <v>3918</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3625</v>
+        <v>3918</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } else if ( flagPot == 1 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt;                 if (  ( minute % 30 )  == 0 &amp;&amp;  ( updateFlag == FALSE )  ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2555,19 +2555,19 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3650</v>
+        <v>4107</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3650</v>
+        <v>4107</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if (  ( PINB &amp; _BV ( PB0 )  )  == 0 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( modeFlag == 0 )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -2584,19 +2584,19 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3665</v>
+        <v>4115</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3665</v>
+        <v>4115</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if (  ( PINB &amp; _BV ( PB0 )  )  == 0 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt;     } else if  ( modeFlag == 1 )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -2613,19 +2613,19 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3720</v>
+        <v>4170</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3720</v>
+        <v>4170</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( wrongPassCounter == 0 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt;                 if  ( codeFlag == 1 )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2634,7 +2634,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -2642,19 +2642,19 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3771</v>
+        <v>4185</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3771</v>
+        <v>4185</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( doorOpen == 1 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt;                 } else if  ( codeFlag == 0 )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>315</v>
+        <v>218</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -2671,19 +2671,19 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3889</v>
+        <v>4217</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3889</v>
+        <v>4217</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 if  ( wifiEnrollProgress != 0 )  break ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;             if  ( modeFlag == 0 )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -2700,19 +2700,19 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3910</v>
+        <v>4226</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3910</v>
+        <v>4226</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 if ( lockFlag == FALSE ) { &lt;end&gt;</t>
+          <t>&lt;start&gt;             } else if  ( modeFlag == 1 )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>101</v>
+        <v>259</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -2729,19 +2729,19 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3918</v>
+        <v>4258</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3918</v>
+        <v>4258</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 if (  ( minute % 30 )  == 0 &amp;&amp;  ( updateFlag == FALSE )  ) { &lt;end&gt;</t>
+          <t>&lt;start&gt;                                 if  ( modeFlag == 0 )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>109</v>
+        <v>293</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4107</v>
+        <v>4275</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2766,11 +2766,11 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4107</v>
+        <v>4275</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( modeFlag == 0 )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;                                 } else if  ( modeFlag == 1 )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2779,7 +2779,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>140</v>
+        <v>310</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -2787,19 +2787,19 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4115</v>
+        <v>4667</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4115</v>
+        <v>4667</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } else if  ( modeFlag == 1 )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( is_verified == true )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -2816,19 +2816,19 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4165</v>
+        <v>4720</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4165</v>
+        <v>4720</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                         codeFlag = 0 ;  &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( is_verified == true )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2837,473 +2837,9 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>4170</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>SmartLock_HardwareDriver main.c</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>4170</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>&lt;start&gt;                 if  ( codeFlag == 1 )  { &lt;end&gt;</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>203</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>4185</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>SmartLock_HardwareDriver main.c</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>4185</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>&lt;start&gt;                 } else if  ( codeFlag == 0 )  { &lt;end&gt;</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>218</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>4217</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>SmartLock_HardwareDriver main.c</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>4217</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>&lt;start&gt;             if  ( modeFlag == 0 )  { &lt;end&gt;</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>250</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>4226</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>SmartLock_HardwareDriver main.c</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>4226</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>&lt;start&gt;             } else if  ( modeFlag == 1 )  { &lt;end&gt;</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>259</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>4240</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>SmartLock_HardwareDriver main.c</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>4240</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>&lt;start&gt;         if  ( !status )  { &lt;end&gt;</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>273</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>4242</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>SmartLock_HardwareDriver main.c</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>4242</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>&lt;start&gt;             if  ( !status )  { &lt;end&gt;</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>275</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>4244</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>SmartLock_HardwareDriver main.c</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>4244</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>&lt;start&gt;                 if  ( !status )  { &lt;end&gt;</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>277</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>4248</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>SmartLock_HardwareDriver main.c</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>4248</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>&lt;start&gt;                         if  ( !status )  { &lt;end&gt;</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>281</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>4250</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>SmartLock_HardwareDriver main.c</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>4250</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>&lt;start&gt;                             if  ( !status )   &lt;end&gt;</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>285</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>4258</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>SmartLock_HardwareDriver main.c</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>4258</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>&lt;start&gt;                                 if  ( modeFlag == 0 )  { &lt;end&gt;</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>293</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>4275</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>SmartLock_HardwareDriver main.c</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>4275</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>&lt;start&gt;                                 } else if  ( modeFlag == 1 )  { &lt;end&gt;</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>310</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>4530</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>tc-iot-sdk-embedded main.c</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>4530</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>&lt;start&gt;     if  ( wifi_connected )  { &lt;end&gt;</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>166</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>4608</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>TrustFlex pub_key_rotate.c</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>4608</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>&lt;start&gt; if  ( validate )  &lt;end&gt;</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>83</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>4656</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>TrustFlex pub_key_rotate.c</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>4656</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>&lt;start&gt;         if  ( validate )  &lt;end&gt;</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>137</v>
-      </c>
-      <c r="G97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>4667</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>TrustFlex pub_key_rotate.c</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>4667</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>&lt;start&gt;         if  ( is_verified == true )  &lt;end&gt;</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>149</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>4720</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>TrustFlex pub_key_rotate.c</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>4720</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>&lt;start&gt;         if  ( is_verified == true )  &lt;end&gt;</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>215</v>
-      </c>
-      <c r="G99" t="n">
         <v>1</v>
       </c>
     </row>

--- a/dataset/insecure stuff.xlsx
+++ b/dataset/insecure stuff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -844,7 +844,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -852,11 +852,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                             if  ( result &gt; 0 )  &lt;end&gt;</t>
+          <t>&lt;start&gt; if  ( isHighSpeed )  { CLOCK_PLL (  )  ; } &lt;end&gt;</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>620</v>
+        <v>587</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -881,11 +881,11 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     if  ( status.lastSampledTicks == 0x0000 )  { status.lastSampledTicks = now ;  } &lt;end&gt;</t>
+          <t>&lt;start&gt;                             if  ( result &gt; 0 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -910,11 +910,11 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                     if  ( status.lastWrittenTicks == 0x0000 )  { status.lastWrittenTicks = now ;  } &lt;end&gt;</t>
+          <t>&lt;start&gt;                     if  ( status.lastSampledTicks == 0x0000 )  { status.lastSampledTicks = now ;  } &lt;end&gt;</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -939,11 +939,11 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                             if  ( failCounter &gt; 5 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;                     if  ( status.lastWrittenTicks == 0x0000 )  { status.lastWrittenTicks = now ;  } &lt;end&gt;</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -968,11 +968,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                         else if  ( now - status.lastWrittenTicks &gt; 30 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;                             if  ( failCounter &gt; 5 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -997,11 +997,11 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                             if  ( failCounter &gt; 5 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;                         else if  ( now - status.lastWrittenTicks &gt; 30 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1026,11 +1026,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                                 if  ( FSDiskFree (  )  == 0 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;                             if  ( failCounter &gt; 5 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>607</v>
+        <v>552</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1055,11 +1055,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>607</v>
+        <v>552</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( restart != 1 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;                                 if  ( FSDiskFree (  )  == 0 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>731</v>
+        <v>666</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1084,11 +1084,11 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 if  ( countdown &gt; 0 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( restart != 1 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>755</v>
+        <v>731</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1105,19 +1105,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>758</v>
+        <v>624</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ESP8266-Firmware main.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>758</v>
+        <v>624</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( ever_saved == 0 )  {  &lt;end&gt;</t>
+          <t>&lt;start&gt;             if  ( led )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>142</v>
+        <v>752</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1134,19 +1134,19 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>796</v>
+        <v>627</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Firmament-Autopilot i2c_core.c</t>
+          <t>AX3_Firmware main.c</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>796</v>
+        <v>627</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( bus-&gt;timeout == 0 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;                 if  ( countdown &gt; 0 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>51</v>
+        <v>755</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1163,19 +1163,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>1080</v>
+        <v>758</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>ESP8266-Firmware main.c</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1080</v>
+        <v>758</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if  ( r != 0 )  &lt;end&gt;</t>
+          <t>&lt;start&gt; if ( ever_saved == 0 )  {  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1192,19 +1192,19 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>1253</v>
+        <v>796</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1253</v>
+        <v>796</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if  (  ( data_unit_length &lt;= 0 )  ||  ( data_unit_length &gt; 10000000 )  )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( bus-&gt;timeout == 0 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>438</v>
+        <v>51</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1221,19 +1221,19 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>1260</v>
+        <v>876</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Hardware-Bitcoin-Wallet xex.c</t>
+          <t>Firmament-Autopilot i2c_core.c</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1260</v>
+        <v>876</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if  (  ( data_unit_length &amp; 0x7f )  != 0 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     return ret == 1 ? count : 0 ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>445</v>
+        <v>134</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1250,19 +1250,19 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>1890</v>
+        <v>1080</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1890</v>
+        <v>1080</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( len &lt; 0 )  { &lt;end&gt;</t>
+          <t>&lt;start&gt; if  ( r != 0 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>376</v>
+        <v>222</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1279,19 +1279,19 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>1936</v>
+        <v>1226</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1936</v>
+        <v>1226</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( 0 != iotx_post ( httpc ,  &lt;end&gt;</t>
+          <t>&lt;start&gt; while  ( !seen_count )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1308,19 +1308,19 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>1949</v>
+        <v>1253</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1949</v>
+        <v>1253</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( ret &lt; 0 )  { &lt;end&gt;</t>
+          <t>&lt;start&gt; if  (  ( data_unit_length &lt;= 0 )  ||  ( data_unit_length &gt; 10000000 )  )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1337,19 +1337,19 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>1954</v>
+        <v>1260</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>iotkit-embedded iotx_http_api.c</t>
+          <t>Hardware-Bitcoin-Wallet xex.c</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1954</v>
+        <v>1260</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( 0 == iotx_http_context-&gt;keep_alive )  { &lt;end&gt;</t>
+          <t>&lt;start&gt; if  (  ( data_unit_length &amp; 0x7f )  != 0 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>2076</v>
+        <v>1890</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1374,11 +1374,11 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2076</v>
+        <v>1890</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( 0 == iotx_http_context-&gt;is_authed )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( len &lt; 0 )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>594</v>
+        <v>376</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>2137</v>
+        <v>1936</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1403,11 +1403,11 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2137</v>
+        <v>1936</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( ret &lt; 0 )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( 0 != iotx_post ( httpc ,  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>657</v>
+        <v>434</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>2143</v>
+        <v>1949</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1432,11 +1432,11 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2143</v>
+        <v>1949</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( 0 == iotx_http_context-&gt;keep_alive )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( ret &lt; 0 )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>663</v>
+        <v>447</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1453,19 +1453,19 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>2331</v>
+        <v>1954</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2331</v>
+        <v>1954</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>&lt;start&gt;   if ( fingerprintID == 1 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( 0 == iotx_http_context-&gt;keep_alive )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>98</v>
+        <v>452</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1482,19 +1482,19 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>2342</v>
+        <v>2033</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>m2_fingerprint main.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2342</v>
+        <v>2033</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>&lt;start&gt;    if ( fingerprintID == 2 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( req_payload )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>109</v>
+        <v>544</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1511,19 +1511,19 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>2498</v>
+        <v>2037</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2498</v>
+        <v>2037</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 5 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( rsp_payload )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>184</v>
+        <v>548</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1540,19 +1540,19 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>2559</v>
+        <v>2076</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2559</v>
+        <v>2076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 0 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( 0 == iotx_http_context-&gt;is_authed )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>261</v>
+        <v>594</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1569,19 +1569,19 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>2581</v>
+        <v>2137</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2581</v>
+        <v>2137</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 1 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( ret &lt; 0 )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>289</v>
+        <v>657</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1598,19 +1598,19 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>2704</v>
+        <v>2143</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2704</v>
+        <v>2143</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( begin_session_counter &gt;= 50 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( 0 == iotx_http_context-&gt;keep_alive )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>470</v>
+        <v>663</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1627,19 +1627,19 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>2742</v>
+        <v>2199</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>iotkit-embedded iotx_http_api.c</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2742</v>
+        <v>2199</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( vend_approved_counter &gt;= 50 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( user_data )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>516</v>
+        <v>733</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1656,19 +1656,19 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>2849</v>
+        <v>2331</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2849</v>
+        <v>2331</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 4 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;   if ( fingerprintID == 1 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>643</v>
+        <v>98</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1685,19 +1685,19 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>2876</v>
+        <v>2342</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>mbd-arduino-cashless mdb.c</t>
+          <t>m2_fingerprint main.c</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2876</v>
+        <v>2342</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 2 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;    if ( fingerprintID == 2 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>685</v>
+        <v>109</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>2896</v>
+        <v>2498</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1722,11 +1722,11 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2896</v>
+        <v>2498</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 0 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 5 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1735,7 +1735,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>715</v>
+        <v>184</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>2923</v>
+        <v>2559</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1751,11 +1751,11 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2923</v>
+        <v>2559</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 4 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 0 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>747</v>
+        <v>261</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>2961</v>
+        <v>2581</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1780,11 +1780,11 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2961</v>
+        <v>2581</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 29 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 1 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>801</v>
+        <v>289</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -1801,19 +1801,19 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3082</v>
+        <v>2704</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MicroBros-SmartHome main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3082</v>
+        <v>2704</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( last_temp == 255 ||  ( curr_temp-last_temp )   )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( begin_session_counter &gt;= 50 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>60</v>
+        <v>470</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -1830,19 +1830,19 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3108</v>
+        <v>2742</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MicroBros-SmartHome main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3108</v>
+        <v>2742</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if (   ( memcmp ( entered_password ,  password ,  sizeof ( entered_password )  )  != 0 )   )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( vend_approved_counter &gt;= 50 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>86</v>
+        <v>516</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -1859,19 +1859,19 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3121</v>
+        <v>2849</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MicroBros-SmartHome main.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3121</v>
+        <v>2849</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( counter == 3 )  &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 4 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>99</v>
+        <v>643</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -1888,19 +1888,19 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3163</v>
+        <v>2876</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3163</v>
+        <v>2876</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( CryptoHashFunction ( SecretKey ,  32 ,  k )  != 0 )  {    &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 2 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>26</v>
+        <v>685</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -1917,19 +1917,19 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3213</v>
+        <v>2896</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3213</v>
+        <v>2896</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( CryptoHashFunction ( SecretKey ,  32 ,  k )  != 0 )  {    &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 0 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>82</v>
+        <v>715</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -1946,19 +1946,19 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3227</v>
+        <v>2923</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3227</v>
+        <v>2923</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( CryptoHashFunction ( temp+32 ,  SizeMessage+32 ,  r )  != 0 )  {    &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 4 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>96</v>
+        <v>747</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -1975,19 +1975,19 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3237</v>
+        <v>2961</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>mbd-arduino-cashless mdb.c</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3237</v>
+        <v>2961</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( CryptoHashFunction ( temp ,  SizeMessage+64 ,  h )  != 0 )  {    &lt;end&gt;</t>
+          <t>&lt;start&gt;         if  ( MDB_DataCount (  )  &gt; 29 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>106</v>
+        <v>801</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2004,19 +2004,19 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3290</v>
+        <v>3082</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>microFourQ schnorrq.c</t>
+          <t>MicroBros-SmartHome main.c</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3290</v>
+        <v>3082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( CryptoHashFunction ( temp ,  SizeMessage+64 ,  h )  != 0 )  {    &lt;end&gt;</t>
+          <t>&lt;start&gt; if ( last_temp == 255 ||  ( curr_temp-last_temp )   )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2033,19 +2033,19 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3375</v>
+        <v>3108</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>rauc crypt.c</t>
+          <t>MicroBros-SmartHome main.c</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3375</v>
+        <v>3108</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if  ( inlen &lt;= 0 )  &lt;end&gt;</t>
+          <t>&lt;start&gt; if (   ( memcmp ( entered_password ,  password ,  sizeof ( entered_password )  )  != 0 )   )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2062,19 +2062,19 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3519</v>
+        <v>3121</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>MicroBros-SmartHome main.c</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3519</v>
+        <v>3121</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>&lt;start&gt; }while ( column == 0x0F )  ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; if ( counter == 3 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2083,7 +2083,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2091,19 +2091,19 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3571</v>
+        <v>3163</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3571</v>
+        <v>3163</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( flagWrongPass == 0 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( CryptoHashFunction ( SecretKey ,  32 ,  k )  != 0 )  {    &lt;end&gt;</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2120,19 +2120,19 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3572</v>
+        <v>3213</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3572</v>
+        <v>3213</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>&lt;start&gt; while ( buzzerCounter &gt; 0 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( CryptoHashFunction ( SecretKey ,  32 ,  k )  != 0 )  {    &lt;end&gt;</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2149,19 +2149,19 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3577</v>
+        <v>3227</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3577</v>
+        <v>3227</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } else if ( flagWrongPass == 1 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( CryptoHashFunction ( temp+32 ,  SizeMessage+32 ,  r )  != 0 )  {    &lt;end&gt;</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2178,19 +2178,19 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3585</v>
+        <v>3237</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3585</v>
+        <v>3237</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if (  ( PINB &amp; _BV ( PB0 )  )  == 0 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( CryptoHashFunction ( temp ,  SizeMessage+64 ,  h )  != 0 )  {    &lt;end&gt;</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2199,7 +2199,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2207,19 +2207,19 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3590</v>
+        <v>3290</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>microFourQ schnorrq.c</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3590</v>
+        <v>3290</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( doorOpen == 0 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( CryptoHashFunction ( temp ,  SizeMessage+64 ,  h )  != 0 )  {    &lt;end&gt;</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2236,19 +2236,19 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3606</v>
+        <v>3375</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>sef-project main.c</t>
+          <t>rauc crypt.c</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3606</v>
+        <v>3375</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( doorOpen == 1 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt; if  ( inlen &lt;= 0 )  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3609</v>
+        <v>3519</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2273,11 +2273,11 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3609</v>
+        <v>3519</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } else if ( doorOpen == 0 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt; }while ( column == 0x0F )  ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2286,7 +2286,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3620</v>
+        <v>3571</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3620</v>
+        <v>3571</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( flagPot == 0 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt; if ( flagWrongPass == 0 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3625</v>
+        <v>3572</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2331,11 +2331,11 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3625</v>
+        <v>3572</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>&lt;start&gt; } else if ( flagPot == 1 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt; while ( buzzerCounter &gt; 0 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3650</v>
+        <v>3577</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2360,11 +2360,11 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3650</v>
+        <v>3577</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if (  ( PINB &amp; _BV ( PB0 )  )  == 0 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt; } else if ( flagWrongPass == 1 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3665</v>
+        <v>3585</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3665</v>
+        <v>3585</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3720</v>
+        <v>3590</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2418,11 +2418,11 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3720</v>
+        <v>3590</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>&lt;start&gt; if ( wrongPassCounter == 0 ) { &lt;end&gt;</t>
+          <t>&lt;start&gt; if ( doorOpen == 0 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>264</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3771</v>
+        <v>3606</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3771</v>
+        <v>3606</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>315</v>
+        <v>150</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2468,19 +2468,19 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3889</v>
+        <v>3609</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3889</v>
+        <v>3609</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 if  ( wifiEnrollProgress != 0 )  break ;  &lt;end&gt;</t>
+          <t>&lt;start&gt; } else if ( doorOpen == 0 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2489,7 +2489,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2497,19 +2497,19 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3910</v>
+        <v>3620</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3910</v>
+        <v>3620</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 if ( lockFlag == FALSE ) { &lt;end&gt;</t>
+          <t>&lt;start&gt; if ( flagPot == 0 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2526,19 +2526,19 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3918</v>
+        <v>3625</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Smart_Door_Lock main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3918</v>
+        <v>3625</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 if (  ( minute % 30 )  == 0 &amp;&amp;  ( updateFlag == FALSE )  ) { &lt;end&gt;</t>
+          <t>&lt;start&gt; } else if ( flagPot == 1 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2555,19 +2555,19 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4107</v>
+        <v>3650</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4107</v>
+        <v>3650</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     if  ( modeFlag == 0 )  { &lt;end&gt;</t>
+          <t>&lt;start&gt; if (  ( PINB &amp; _BV ( PB0 )  )  == 0 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -2584,19 +2584,19 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4115</v>
+        <v>3665</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4115</v>
+        <v>3665</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>&lt;start&gt;     } else if  ( modeFlag == 1 )  { &lt;end&gt;</t>
+          <t>&lt;start&gt; if (  ( PINB &amp; _BV ( PB0 )  )  == 0 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -2613,19 +2613,19 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4170</v>
+        <v>3720</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4170</v>
+        <v>3720</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 if  ( codeFlag == 1 )  { &lt;end&gt;</t>
+          <t>&lt;start&gt; if ( wrongPassCounter == 0 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2634,7 +2634,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>203</v>
+        <v>264</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -2642,19 +2642,19 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4185</v>
+        <v>3771</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>sef-project main.c</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4185</v>
+        <v>3771</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                 } else if  ( codeFlag == 0 )  { &lt;end&gt;</t>
+          <t>&lt;start&gt; if ( doorOpen == 1 ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>218</v>
+        <v>315</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -2671,19 +2671,19 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4217</v>
+        <v>3889</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4217</v>
+        <v>3889</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             if  ( modeFlag == 0 )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;                 if  ( wifiEnrollProgress != 0 )  break ;  &lt;end&gt;</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -2700,19 +2700,19 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4226</v>
+        <v>3910</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4226</v>
+        <v>3910</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>&lt;start&gt;             } else if  ( modeFlag == 1 )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;                 if ( lockFlag == FALSE ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>259</v>
+        <v>101</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -2729,19 +2729,19 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4258</v>
+        <v>3918</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SmartLock_HardwareDriver main.c</t>
+          <t>Smart_Door_Lock main.c</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4258</v>
+        <v>3918</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                                 if  ( modeFlag == 0 )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;                 if (  ( minute % 30 )  == 0 &amp;&amp;  ( updateFlag == FALSE )  ) { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>293</v>
+        <v>109</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4275</v>
+        <v>4107</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2766,11 +2766,11 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4275</v>
+        <v>4107</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>&lt;start&gt;                                 } else if  ( modeFlag == 1 )  { &lt;end&gt;</t>
+          <t>&lt;start&gt;     if  ( modeFlag == 0 )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2779,7 +2779,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -2787,19 +2787,19 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4667</v>
+        <v>4115</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TrustFlex pub_key_rotate.c</t>
+          <t>SmartLock_HardwareDriver main.c</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4667</v>
+        <v>4115</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>&lt;start&gt;         if  ( is_verified == true )  &lt;end&gt;</t>
+          <t>&lt;start&gt;     } else if  ( modeFlag == 1 )  { &lt;end&gt;</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -2816,30 +2816,494 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
+        <v>4165</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>SmartLock_HardwareDriver main.c</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>4165</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>&lt;start&gt;                         codeFlag = 0 ;  &lt;end&gt;</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>198</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>4170</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>SmartLock_HardwareDriver main.c</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>4170</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>&lt;start&gt;                 if  ( codeFlag == 1 )  { &lt;end&gt;</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>203</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>4185</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>SmartLock_HardwareDriver main.c</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>4185</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>&lt;start&gt;                 } else if  ( codeFlag == 0 )  { &lt;end&gt;</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>218</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>4217</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SmartLock_HardwareDriver main.c</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>4217</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>&lt;start&gt;             if  ( modeFlag == 0 )  { &lt;end&gt;</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>250</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>4226</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>SmartLock_HardwareDriver main.c</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>4226</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>&lt;start&gt;             } else if  ( modeFlag == 1 )  { &lt;end&gt;</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>259</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>4240</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>SmartLock_HardwareDriver main.c</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>4240</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>&lt;start&gt;         if  ( !status )  { &lt;end&gt;</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>273</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>4242</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SmartLock_HardwareDriver main.c</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>4242</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>&lt;start&gt;             if  ( !status )  { &lt;end&gt;</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>275</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>4244</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>SmartLock_HardwareDriver main.c</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>4244</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>&lt;start&gt;                 if  ( !status )  { &lt;end&gt;</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>277</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>4248</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SmartLock_HardwareDriver main.c</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>4248</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>&lt;start&gt;                         if  ( !status )  { &lt;end&gt;</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>281</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>4250</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SmartLock_HardwareDriver main.c</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>4250</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>&lt;start&gt;                             if  ( !status )   &lt;end&gt;</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>285</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>4258</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SmartLock_HardwareDriver main.c</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>4258</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>&lt;start&gt;                                 if  ( modeFlag == 0 )  { &lt;end&gt;</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>293</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>4275</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SmartLock_HardwareDriver main.c</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>4275</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>&lt;start&gt;                                 } else if  ( modeFlag == 1 )  { &lt;end&gt;</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>310</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>4530</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>tc-iot-sdk-embedded main.c</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>4530</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>&lt;start&gt;     if  ( wifi_connected )  { &lt;end&gt;</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>166</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>4608</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>TrustFlex pub_key_rotate.c</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>4608</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>&lt;start&gt; if  ( validate )  &lt;end&gt;</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>83</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>4656</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>TrustFlex pub_key_rotate.c</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>4656</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>&lt;start&gt;         if  ( validate )  &lt;end&gt;</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>137</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>4667</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TrustFlex pub_key_rotate.c</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>4667</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>&lt;start&gt;         if  ( is_verified == true )  &lt;end&gt;</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>149</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
         <v>4720</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>TrustFlex pub_key_rotate.c</t>
         </is>
       </c>
-      <c r="C83" t="n">
+      <c r="C99" t="n">
         <v>4720</v>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>&lt;start&gt;         if  ( is_verified == true )  &lt;end&gt;</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
         <v>215</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G99" t="n">
         <v>1</v>
       </c>
     </row>
